--- a/uploads/empleados_a_plano/archivo_empleados.xlsx
+++ b/uploads/empleados_a_plano/archivo_empleados.xlsx
@@ -16,46 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Emp_Email</t>
-  </si>
-  <si>
-    <t>TipCon_Id</t>
-  </si>
-  <si>
-    <t>Emp_FechaAfiliacionArl</t>
-  </si>
-  <si>
-    <t>TipAse_Id</t>
-  </si>
-  <si>
-    <t>Ase_Id</t>
-  </si>
-  <si>
-    <t>Dim_id</t>
-  </si>
-  <si>
-    <t>Dim_IdDos</t>
-  </si>
-  <si>
-    <t>Car_id</t>
-  </si>
-  <si>
-    <t>Emp_codigo</t>
-  </si>
-  <si>
-    <t>TipDoc_id</t>
-  </si>
-  <si>
-    <t>Est_id</t>
-  </si>
-  <si>
-    <t>emp_fondo</t>
-  </si>
-  <si>
-    <t>Emp_contacto</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>nelson</t>
   </si>
@@ -78,9 +39,6 @@
     <t>apellido</t>
   </si>
   <si>
-    <t>sexo 1=M 2=F</t>
-  </si>
-  <si>
     <t>Fecha Nacimiento</t>
   </si>
   <si>
@@ -99,16 +57,121 @@
     <t>Telefono Contacto</t>
   </si>
   <si>
-    <t>EstCiv 1- soltero 2-casado 3-divorciado 4-viudo</t>
-  </si>
-  <si>
     <t>Fecha Inicio Contrato</t>
   </si>
   <si>
-    <t>Fecha FinContrato</t>
-  </si>
-  <si>
     <t>Plan Obligatorio Salud</t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>ESTADO SIVIL</t>
+  </si>
+  <si>
+    <t>Soltero</t>
+  </si>
+  <si>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t>Divorciado</t>
+  </si>
+  <si>
+    <t>Viudo</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Estado Civil</t>
+  </si>
+  <si>
+    <t>Tipo de contrato</t>
+  </si>
+  <si>
+    <t>Fecha Afiliacion Arl</t>
+  </si>
+  <si>
+    <t>tipo aseguradora</t>
+  </si>
+  <si>
+    <t>Codigo estado</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>Inactivo</t>
+  </si>
+  <si>
+    <t>Eliminado</t>
+  </si>
+  <si>
+    <t>Finalizados</t>
+  </si>
+  <si>
+    <t>Fecha Fin Contrato</t>
+  </si>
+  <si>
+    <t>Aseguradora</t>
+  </si>
+  <si>
+    <t>Contacto</t>
+  </si>
+  <si>
+    <t>Fondo de pensiones</t>
+  </si>
+  <si>
+    <t>Dimension</t>
+  </si>
+  <si>
+    <t>Dimension 2</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Martha Malagon</t>
+  </si>
+  <si>
+    <t>colpensiones</t>
+  </si>
+  <si>
+    <t>Tipo Documento</t>
+  </si>
+  <si>
+    <t>CEDULA DE CIUDADANIA</t>
+  </si>
+  <si>
+    <t>Gerencia</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>Area Producción</t>
+  </si>
+  <si>
+    <t>prue3</t>
+  </si>
+  <si>
+    <t>Red de ambulancias</t>
+  </si>
+  <si>
+    <t>Compensar</t>
+  </si>
+  <si>
+    <t>prestación de servicios</t>
   </si>
 </sst>
 </file>
@@ -145,12 +208,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -161,12 +239,19 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -462,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.42578125" defaultRowHeight="15"/>
@@ -482,147 +567,272 @@
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" customWidth="1"/>
     <col min="14" max="14" width="25.140625" customWidth="1"/>
     <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" customWidth="1"/>
+    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="21" max="21" width="17.140625" customWidth="1"/>
     <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="24" max="24" width="22.7109375" customWidth="1"/>
+    <col min="25" max="25" width="20.28515625" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="W1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="7"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="6">
+        <v>1</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="6">
+        <v>2</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="6">
+        <v>3</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" s="6">
+        <v>4</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W9" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10">
+        <v>1111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>32398</v>
+      </c>
+      <c r="F10">
+        <v>1.7</v>
+      </c>
+      <c r="G10">
+        <v>75</v>
+      </c>
+      <c r="H10">
+        <v>456123</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>456</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="M10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="1">
+        <v>41905</v>
+      </c>
+      <c r="O10" s="1">
+        <v>42636</v>
+      </c>
+      <c r="P10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>36792</v>
+      </c>
+      <c r="R10" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U10" t="s">
+        <v>47</v>
+      </c>
+      <c r="V10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" t="s">
+        <v>44</v>
+      </c>
+      <c r="X10">
         <v>4</v>
       </c>
-      <c r="T1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2">
-        <v>1111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>32398</v>
-      </c>
-      <c r="F2">
-        <v>1.7</v>
-      </c>
-      <c r="G2">
-        <v>75</v>
-      </c>
-      <c r="H2">
-        <v>456123</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2">
-        <v>456</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
+      <c r="Y10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="W1:X1"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K10" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
